--- a/Diagramme-de-Gantt-sur-Excel-v2.xlsx
+++ b/Diagramme-de-Gantt-sur-Excel-v2.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="7" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="6" r:id="rId3"/>
-    <sheet name="Table" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="8" r:id="rId4"/>
+    <sheet name="Table" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ouinon">Table!$D$1:$D$2</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
   <si>
     <t>Projet</t>
   </si>
@@ -431,6 +432,84 @@
   </si>
   <si>
     <t>Jours</t>
+  </si>
+  <si>
+    <t>total complexe/moyen/ simple</t>
+  </si>
+  <si>
+    <t>Processus6</t>
+  </si>
+  <si>
+    <t>Processus7</t>
+  </si>
+  <si>
+    <t>13 facile</t>
+  </si>
+  <si>
+    <t>6moyen</t>
+  </si>
+  <si>
+    <t>3complexe</t>
+  </si>
+  <si>
+    <t>x2,5</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>Jh</t>
+  </si>
+  <si>
+    <t>Processus 2</t>
+  </si>
+  <si>
+    <t>Processus 3</t>
+  </si>
+  <si>
+    <t>Processus 4</t>
+  </si>
+  <si>
+    <t>Processus 5</t>
+  </si>
+  <si>
+    <t>Processus 6</t>
+  </si>
+  <si>
+    <t>Processus 7</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Complexité</t>
+  </si>
+  <si>
+    <t>Complexe</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>jh par tache</t>
+  </si>
+  <si>
+    <t>Processue7</t>
   </si>
 </sst>
 </file>
@@ -541,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,8 +681,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -780,12 +871,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -878,15 +980,67 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -914,59 +1068,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,40 +1098,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1480,57 +1614,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="G1" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
-        <v>42487</v>
+        <v>42488</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="35" t="s">
         <v>72</v>
       </c>
@@ -1539,10 +1673,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="30">
         <v>42472</v>
       </c>
@@ -1551,13 +1685,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="18"/>
       <c r="G7" s="15"/>
       <c r="H7" s="5">
@@ -2048,19 +2182,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="86" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="17"/>
@@ -2307,11 +2441,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="17"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -2634,7 +2768,7 @@
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="38">
         <v>42472</v>
       </c>
       <c r="D12" s="12">
@@ -3838,6 +3972,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -3847,11 +3986,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -3934,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB75"/>
+  <dimension ref="A1:DB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="CQ59" sqref="CQ59"/>
+    <sheetView topLeftCell="A2" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="CD46" sqref="CD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,11 +4081,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="19"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4017,15 +4151,15 @@
       <c r="BP1" s="1"/>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="19"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
@@ -4091,13 +4225,13 @@
       <c r="BP2" s="1"/>
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="19"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
@@ -4163,8 +4297,8 @@
       <c r="BP3" s="1"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
@@ -4233,10 +4367,10 @@
       <c r="BP4" s="1"/>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="30">
         <v>42472</v>
       </c>
@@ -4307,13 +4441,13 @@
       <c r="BP5" s="1"/>
     </row>
     <row r="6" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="18"/>
       <c r="G6" s="15"/>
       <c r="H6" s="5"/>
@@ -4379,14 +4513,14 @@
       <c r="BP6" s="4"/>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="18"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="86"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -4449,11 +4583,11 @@
       <c r="BP7" s="4"/>
     </row>
     <row r="8" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="19"/>
       <c r="G8" s="16"/>
       <c r="H8" s="9"/>
@@ -4520,20 +4654,20 @@
     </row>
     <row r="9" spans="1:106" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="70" t="s">
+      <c r="F9" s="86"/>
+      <c r="G9" s="53" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="10"/>
@@ -4554,7 +4688,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="71" t="s">
+      <c r="Z9" s="54" t="s">
         <v>89</v>
       </c>
       <c r="AA9" s="10"/>
@@ -4587,7 +4721,7 @@
       <c r="BB9" s="10"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
-      <c r="BE9" s="71" t="s">
+      <c r="BE9" s="54" t="s">
         <v>90</v>
       </c>
       <c r="BF9" s="10"/>
@@ -4601,320 +4735,320 @@
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
       <c r="BP9" s="2"/>
-      <c r="CI9" s="72" t="s">
+      <c r="CI9" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:106" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="52">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="39">
         <v>42472</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="39">
         <v>42473</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="39">
         <v>42474</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="39">
         <v>42475</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="39">
         <v>42476</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="39">
         <v>42477</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="39">
         <v>42478</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="39">
         <v>42479</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="39">
         <v>42480</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="39">
         <v>42481</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="39">
         <v>42482</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="39">
         <v>42483</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="39">
         <v>42484</v>
       </c>
-      <c r="T10" s="79">
+      <c r="T10" s="62">
         <v>42485</v>
       </c>
-      <c r="U10" s="79">
+      <c r="U10" s="62">
         <v>42486</v>
       </c>
-      <c r="V10" s="79">
+      <c r="V10" s="62">
         <v>42487</v>
       </c>
-      <c r="W10" s="79">
+      <c r="W10" s="62">
         <v>42488</v>
       </c>
-      <c r="X10" s="79">
+      <c r="X10" s="62">
         <v>42489</v>
       </c>
-      <c r="Y10" s="79">
+      <c r="Y10" s="62">
         <v>42490</v>
       </c>
-      <c r="Z10" s="79">
+      <c r="Z10" s="62">
         <v>42491</v>
       </c>
-      <c r="AA10" s="52">
+      <c r="AA10" s="39">
         <v>42492</v>
       </c>
-      <c r="AB10" s="52">
+      <c r="AB10" s="39">
         <v>42493</v>
       </c>
-      <c r="AC10" s="52">
+      <c r="AC10" s="39">
         <v>42494</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="39">
         <v>42495</v>
       </c>
-      <c r="AE10" s="52">
+      <c r="AE10" s="39">
         <v>42496</v>
       </c>
-      <c r="AF10" s="79">
+      <c r="AF10" s="62">
         <v>42497</v>
       </c>
-      <c r="AG10" s="79">
+      <c r="AG10" s="62">
         <v>42498</v>
       </c>
-      <c r="AH10" s="79">
+      <c r="AH10" s="62">
         <v>42499</v>
       </c>
-      <c r="AI10" s="79">
+      <c r="AI10" s="62">
         <v>42500</v>
       </c>
-      <c r="AJ10" s="79">
+      <c r="AJ10" s="62">
         <v>42501</v>
       </c>
-      <c r="AK10" s="79">
+      <c r="AK10" s="62">
         <v>42502</v>
       </c>
-      <c r="AL10" s="79">
+      <c r="AL10" s="62">
         <v>42503</v>
       </c>
-      <c r="AM10" s="79">
+      <c r="AM10" s="62">
         <v>42504</v>
       </c>
-      <c r="AN10" s="79">
+      <c r="AN10" s="62">
         <v>42505</v>
       </c>
-      <c r="AO10" s="52">
+      <c r="AO10" s="39">
         <v>42506</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AP10" s="39">
         <v>42507</v>
       </c>
-      <c r="AQ10" s="52">
+      <c r="AQ10" s="39">
         <v>42508</v>
       </c>
-      <c r="AR10" s="52">
+      <c r="AR10" s="39">
         <v>42509</v>
       </c>
-      <c r="AS10" s="52">
+      <c r="AS10" s="39">
         <v>42510</v>
       </c>
-      <c r="AT10" s="79">
+      <c r="AT10" s="62">
         <v>42511</v>
       </c>
-      <c r="AU10" s="79">
+      <c r="AU10" s="62">
         <v>42512</v>
       </c>
-      <c r="AV10" s="52">
+      <c r="AV10" s="39">
         <v>42513</v>
       </c>
-      <c r="AW10" s="52">
+      <c r="AW10" s="39">
         <v>42514</v>
       </c>
-      <c r="AX10" s="52">
+      <c r="AX10" s="39">
         <v>42515</v>
       </c>
-      <c r="AY10" s="52">
+      <c r="AY10" s="39">
         <v>42516</v>
       </c>
-      <c r="AZ10" s="52">
+      <c r="AZ10" s="39">
         <v>42517</v>
       </c>
-      <c r="BA10" s="79">
+      <c r="BA10" s="62">
         <v>42518</v>
       </c>
-      <c r="BB10" s="79">
+      <c r="BB10" s="62">
         <v>42519</v>
       </c>
-      <c r="BC10" s="52">
+      <c r="BC10" s="39">
         <v>42520</v>
       </c>
-      <c r="BD10" s="52">
+      <c r="BD10" s="39">
         <v>42521</v>
       </c>
-      <c r="BE10" s="52">
+      <c r="BE10" s="39">
         <v>42522</v>
       </c>
-      <c r="BF10" s="52">
+      <c r="BF10" s="39">
         <v>42523</v>
       </c>
-      <c r="BG10" s="52">
+      <c r="BG10" s="39">
         <v>42524</v>
       </c>
-      <c r="BH10" s="79">
+      <c r="BH10" s="62">
         <v>42525</v>
       </c>
-      <c r="BI10" s="79">
+      <c r="BI10" s="62">
         <v>42526</v>
       </c>
-      <c r="BJ10" s="52">
+      <c r="BJ10" s="39">
         <v>42527</v>
       </c>
-      <c r="BK10" s="52">
+      <c r="BK10" s="39">
         <v>42528</v>
       </c>
-      <c r="BL10" s="52">
+      <c r="BL10" s="39">
         <v>42529</v>
       </c>
-      <c r="BM10" s="52">
+      <c r="BM10" s="39">
         <v>42530</v>
       </c>
-      <c r="BN10" s="52">
+      <c r="BN10" s="39">
         <v>42531</v>
       </c>
-      <c r="BO10" s="79">
+      <c r="BO10" s="62">
         <v>42532</v>
       </c>
-      <c r="BP10" s="79">
+      <c r="BP10" s="62">
         <v>42533</v>
       </c>
-      <c r="BQ10" s="52">
+      <c r="BQ10" s="39">
         <v>42534</v>
       </c>
-      <c r="BR10" s="52">
+      <c r="BR10" s="39">
         <v>42535</v>
       </c>
-      <c r="BS10" s="52">
+      <c r="BS10" s="39">
         <v>42536</v>
       </c>
-      <c r="BT10" s="52">
+      <c r="BT10" s="39">
         <v>42537</v>
       </c>
-      <c r="BU10" s="52">
+      <c r="BU10" s="39">
         <v>42538</v>
       </c>
-      <c r="BV10" s="79">
+      <c r="BV10" s="62">
         <v>42539</v>
       </c>
-      <c r="BW10" s="79">
+      <c r="BW10" s="62">
         <v>42540</v>
       </c>
-      <c r="BX10" s="79">
+      <c r="BX10" s="62">
         <v>42541</v>
       </c>
-      <c r="BY10" s="79">
+      <c r="BY10" s="62">
         <v>42542</v>
       </c>
-      <c r="BZ10" s="79">
+      <c r="BZ10" s="62">
         <v>42543</v>
       </c>
-      <c r="CA10" s="79">
+      <c r="CA10" s="62">
         <v>42544</v>
       </c>
-      <c r="CB10" s="79">
+      <c r="CB10" s="62">
         <v>42545</v>
       </c>
-      <c r="CC10" s="79">
+      <c r="CC10" s="62">
         <v>42546</v>
       </c>
-      <c r="CD10" s="79">
+      <c r="CD10" s="62">
         <v>42547</v>
       </c>
-      <c r="CE10" s="79">
+      <c r="CE10" s="62">
         <v>42548</v>
       </c>
-      <c r="CF10" s="79">
+      <c r="CF10" s="62">
         <v>42549</v>
       </c>
-      <c r="CG10" s="79">
+      <c r="CG10" s="62">
         <v>42550</v>
       </c>
-      <c r="CH10" s="79">
+      <c r="CH10" s="62">
         <v>42551</v>
       </c>
-      <c r="CI10" s="79">
+      <c r="CI10" s="62">
         <v>42552</v>
       </c>
-      <c r="CJ10" s="79">
+      <c r="CJ10" s="62">
         <v>42553</v>
       </c>
-      <c r="CK10" s="79">
+      <c r="CK10" s="62">
         <v>42554</v>
       </c>
-      <c r="CL10" s="52">
+      <c r="CL10" s="39">
         <v>42555</v>
       </c>
-      <c r="CM10" s="52">
+      <c r="CM10" s="39">
         <v>42556</v>
       </c>
-      <c r="CN10" s="52">
+      <c r="CN10" s="39">
         <v>42557</v>
       </c>
-      <c r="CO10" s="52">
+      <c r="CO10" s="39">
         <v>42558</v>
       </c>
-      <c r="CP10" s="52">
+      <c r="CP10" s="39">
         <v>42559</v>
       </c>
-      <c r="CQ10" s="79">
+      <c r="CQ10" s="62">
         <v>42560</v>
       </c>
-      <c r="CR10" s="79">
+      <c r="CR10" s="62">
         <v>42561</v>
       </c>
-      <c r="CS10" s="52">
+      <c r="CS10" s="39">
         <v>42562</v>
       </c>
-      <c r="CT10" s="52">
+      <c r="CT10" s="39">
         <v>42563</v>
       </c>
-      <c r="CU10" s="52">
+      <c r="CU10" s="39">
         <v>42564</v>
       </c>
-      <c r="CV10" s="52">
+      <c r="CV10" s="39">
         <v>42565</v>
       </c>
-      <c r="CW10" s="52">
+      <c r="CW10" s="39">
         <v>42566</v>
       </c>
-      <c r="CX10" s="52">
+      <c r="CX10" s="39">
         <v>42567</v>
       </c>
-      <c r="CY10" s="52">
+      <c r="CY10" s="39">
         <v>42568</v>
       </c>
-      <c r="CZ10" s="52">
+      <c r="CZ10" s="39">
         <v>42569</v>
       </c>
-      <c r="DA10" s="52">
+      <c r="DA10" s="39">
         <v>42570</v>
       </c>
-      <c r="DB10" s="52">
+      <c r="DB10" s="39">
         <v>42571</v>
       </c>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="42">
         <v>1</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -4923,27 +5057,27 @@
       <c r="C11" s="21"/>
       <c r="D11" s="23"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="58" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -4993,10 +5127,10 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="38">
         <v>42472</v>
       </c>
       <c r="D12" s="12">
@@ -5007,24 +5141,24 @@
         <v>42481</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -5074,38 +5208,38 @@
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="38">
         <v>42472</v>
       </c>
       <c r="D13" s="13">
         <v>9</v>
       </c>
       <c r="E13" s="34">
-        <f t="shared" ref="E13:E28" si="0">$C13+$D13</f>
+        <f t="shared" ref="E13:E34" si="0">$C13+$D13</f>
         <v>42481</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -5155,10 +5289,10 @@
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="38">
         <v>42472</v>
       </c>
       <c r="D14" s="13">
@@ -5169,24 +5303,24 @@
         <v>42481</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -5236,10 +5370,10 @@
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="38">
         <v>42472</v>
       </c>
       <c r="D15" s="13">
@@ -5250,24 +5384,24 @@
         <v>42481</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -5314,13 +5448,11 @@
       <c r="BP15" s="1"/>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="38">
         <v>42472</v>
       </c>
       <c r="D16" s="13">
@@ -5331,24 +5463,24 @@
         <v>42481</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -5395,250 +5527,214 @@
       <c r="BP16" s="1"/>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
-        <v>2</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="38">
+        <v>42472</v>
+      </c>
+      <c r="D17" s="13">
+        <v>9</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" si="0"/>
+        <v>42481</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
       <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="37">
-        <v>42481</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="38">
+        <v>42472</v>
       </c>
       <c r="D18" s="13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E18" s="34">
         <f t="shared" si="0"/>
-        <v>42499</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
+        <v>42481</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
       <c r="BP18" s="1"/>
     </row>
     <row r="19" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="37">
-        <v>42481</v>
-      </c>
-      <c r="D19" s="13">
-        <v>18</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" si="0"/>
-        <v>42499</v>
-      </c>
-      <c r="F19" s="19"/>
+      <c r="A19" s="42">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="20"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
@@ -5665,13 +5761,47 @@
       <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
     </row>
     <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="37">
         <v>42481</v>
@@ -5693,33 +5823,33 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -5749,10 +5879,10 @@
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="37">
         <v>42481</v>
@@ -5774,33 +5904,33 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
@@ -5830,10 +5960,10 @@
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="C22" s="37">
         <v>42481</v>
@@ -5855,33 +5985,33 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
@@ -5910,15 +6040,22 @@
       <c r="BP22" s="1"/>
     </row>
     <row r="23" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
-        <v>3</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="37">
+        <v>42481</v>
+      </c>
+      <c r="D23" s="13">
+        <v>18</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" si="0"/>
+        <v>42499</v>
+      </c>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="1"/>
@@ -5929,97 +6066,76 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI23" s="57"/>
-      <c r="AJ23" s="57"/>
-      <c r="AK23" s="57"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="57"/>
-      <c r="AN23" s="57"/>
-      <c r="AO23" s="57"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="57"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="57"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="57"/>
-      <c r="BB23" s="57"/>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="57"/>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="57"/>
-      <c r="BI23" s="57"/>
-      <c r="BJ23" s="57"/>
-      <c r="BK23" s="57"/>
-      <c r="BL23" s="57"/>
-      <c r="BM23" s="57"/>
-      <c r="BN23" s="57"/>
-      <c r="BO23" s="57"/>
-      <c r="BP23" s="57"/>
-      <c r="BQ23" s="57"/>
-      <c r="BR23" s="57"/>
-      <c r="BS23" s="57"/>
-      <c r="BT23" s="57"/>
-      <c r="BU23" s="57"/>
-      <c r="BV23" s="57"/>
-      <c r="BW23" s="57"/>
-      <c r="BX23" s="57"/>
-      <c r="BY23" s="57"/>
-      <c r="BZ23" s="57"/>
-      <c r="CA23" s="57"/>
-      <c r="CB23" s="57"/>
-      <c r="CC23" s="57"/>
-      <c r="CD23" s="57"/>
-      <c r="CE23" s="57"/>
-      <c r="CF23" s="90"/>
-      <c r="CG23" s="90"/>
-      <c r="CH23" s="90"/>
-      <c r="CI23" s="90"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="114" t="s">
+        <v>112</v>
       </c>
       <c r="C24" s="37">
-        <v>42499</v>
+        <v>42481</v>
       </c>
       <c r="D24" s="13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="34">
         <f t="shared" si="0"/>
-        <v>42509</v>
+        <v>42499</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
@@ -6031,34 +6147,34 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
@@ -6086,21 +6202,19 @@
       <c r="BP24" s="1"/>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>83</v>
+      <c r="A25" s="7"/>
+      <c r="B25" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="C25" s="37">
-        <v>42509</v>
+        <v>42481</v>
       </c>
       <c r="D25" s="13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" si="0"/>
-        <v>42519</v>
+        <v>42499</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
@@ -6112,44 +6226,44 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="62"/>
-      <c r="BA25" s="62"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
@@ -6167,21 +6281,19 @@
       <c r="BP25" s="1"/>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>84</v>
+      <c r="A26" s="7"/>
+      <c r="B26" s="112" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="37">
-        <v>42519</v>
+        <v>42481</v>
       </c>
       <c r="D26" s="13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="34">
         <f t="shared" si="0"/>
-        <v>42529</v>
+        <v>42499</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
@@ -6193,33 +6305,33 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="115"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="115"/>
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="115"/>
+      <c r="AF26" s="115"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
@@ -6231,16 +6343,16 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="69"/>
-      <c r="BH26" s="69"/>
-      <c r="BI26" s="69"/>
-      <c r="BJ26" s="69"/>
-      <c r="BK26" s="69"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
@@ -6248,20 +6360,15 @@
       <c r="BP26" s="1"/>
     </row>
     <row r="27" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="37">
-        <v>42529</v>
-      </c>
-      <c r="D27" s="13">
-        <v>10</v>
-      </c>
-      <c r="E27" s="34">
-        <f t="shared" si="0"/>
-        <v>42539</v>
-      </c>
+      <c r="A27" s="42">
+        <v>3</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="1"/>
@@ -6290,61 +6397,79 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="74"/>
-      <c r="BM27" s="74"/>
-      <c r="BN27" s="74"/>
-      <c r="BO27" s="74"/>
-      <c r="BP27" s="74"/>
-      <c r="BQ27" s="74"/>
-      <c r="BR27" s="74"/>
-      <c r="BS27" s="74"/>
-      <c r="BT27" s="74"/>
-      <c r="BU27" s="74"/>
+      <c r="AH27" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="89"/>
+      <c r="AO27" s="89"/>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="89"/>
+      <c r="AZ27" s="89"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="89"/>
+      <c r="BC27" s="89"/>
+      <c r="BD27" s="89"/>
+      <c r="BE27" s="89"/>
+      <c r="BF27" s="89"/>
+      <c r="BG27" s="89"/>
+      <c r="BH27" s="89"/>
+      <c r="BI27" s="89"/>
+      <c r="BJ27" s="89"/>
+      <c r="BK27" s="89"/>
+      <c r="BL27" s="89"/>
+      <c r="BM27" s="89"/>
+      <c r="BN27" s="89"/>
+      <c r="BO27" s="89"/>
+      <c r="BP27" s="89"/>
+      <c r="BQ27" s="89"/>
+      <c r="BR27" s="89"/>
+      <c r="BS27" s="89"/>
+      <c r="BT27" s="89"/>
+      <c r="BU27" s="89"/>
+      <c r="BV27" s="89"/>
+      <c r="BW27" s="89"/>
+      <c r="BX27" s="89"/>
+      <c r="BY27" s="89"/>
+      <c r="BZ27" s="89"/>
+      <c r="CA27" s="89"/>
+      <c r="CB27" s="89"/>
+      <c r="CC27" s="89"/>
+      <c r="CD27" s="89"/>
+      <c r="CE27" s="89"/>
+      <c r="CF27" s="67"/>
+      <c r="CG27" s="67"/>
+      <c r="CH27" s="67"/>
+      <c r="CI27" s="67"/>
     </row>
     <row r="28" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="75" t="s">
-        <v>112</v>
+      <c r="A28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="37">
-        <v>42539</v>
+        <v>42499</v>
       </c>
       <c r="D28" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E28" s="34">
         <f t="shared" si="0"/>
-        <v>42549</v>
+        <v>42502</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="20"/>
@@ -6374,62 +6499,74 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
-      <c r="BV28" s="77"/>
-      <c r="BW28" s="77"/>
-      <c r="BX28" s="77"/>
-      <c r="BY28" s="77"/>
-      <c r="BZ28" s="77"/>
-      <c r="CA28" s="77"/>
-      <c r="CB28" s="77"/>
-      <c r="CC28" s="77"/>
-      <c r="CD28" s="77"/>
-      <c r="CE28" s="77"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="11"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="11"/>
+      <c r="BN28" s="11"/>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="110"/>
+      <c r="CC28" s="110"/>
+      <c r="CD28" s="110"/>
+      <c r="CE28" s="110"/>
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
-        <v>4</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="37">
+        <v>42502</v>
+      </c>
+      <c r="D29" s="13">
+        <v>5</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" si="0"/>
+        <v>42507</v>
+      </c>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="1"/>
@@ -6458,78 +6595,73 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="CF29" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG29" s="57"/>
-      <c r="CH29" s="57"/>
-      <c r="CI29" s="57"/>
-      <c r="CJ29" s="57"/>
-      <c r="CK29" s="57"/>
-      <c r="CL29" s="57"/>
-      <c r="CM29" s="57"/>
-      <c r="CN29" s="57"/>
-      <c r="CO29" s="57"/>
-      <c r="CP29" s="57"/>
-      <c r="CQ29" s="57"/>
-      <c r="CR29" s="57"/>
-      <c r="CS29" s="57"/>
-      <c r="CT29" s="57"/>
-      <c r="CU29" s="57"/>
-      <c r="CV29" s="57"/>
-      <c r="CW29" s="57"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="117"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="61"/>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="61"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="11"/>
+      <c r="BH29" s="11"/>
+      <c r="BI29" s="11"/>
+      <c r="BJ29" s="11"/>
+      <c r="BK29" s="11"/>
+      <c r="BL29" s="11"/>
+      <c r="BM29" s="11"/>
+      <c r="BN29" s="11"/>
+      <c r="BO29" s="11"/>
+      <c r="BP29" s="11"/>
+      <c r="BQ29" s="110"/>
+      <c r="BR29" s="110"/>
+      <c r="BS29" s="110"/>
+      <c r="BT29" s="110"/>
+      <c r="BU29" s="110"/>
+      <c r="BV29" s="110"/>
+      <c r="BW29" s="110"/>
+      <c r="BX29" s="110"/>
+      <c r="BY29" s="110"/>
+      <c r="BZ29" s="110"/>
+      <c r="CA29" s="110"/>
+      <c r="CB29" s="110"/>
+      <c r="CC29" s="110"/>
+      <c r="CD29" s="110"/>
+      <c r="CE29" s="110"/>
     </row>
     <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="37">
-        <v>42549</v>
+        <v>42507</v>
       </c>
       <c r="D30" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E30" s="34">
-        <f t="shared" ref="E30:E38" si="1">$C30+$D30</f>
-        <v>42552</v>
+        <f t="shared" si="0"/>
+        <v>42519</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
@@ -6559,61 +6691,71 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="CF30" s="65"/>
-      <c r="CG30" s="65"/>
-      <c r="CH30" s="65"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="61"/>
+      <c r="BC30" s="61"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="61"/>
+      <c r="BF30" s="61"/>
+      <c r="BG30" s="61"/>
+      <c r="BH30" s="61"/>
+      <c r="BI30" s="61"/>
+      <c r="BJ30" s="61"/>
+      <c r="BK30" s="61"/>
+      <c r="BL30" s="11"/>
+      <c r="BM30" s="11"/>
+      <c r="BN30" s="11"/>
+      <c r="BO30" s="11"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="110"/>
+      <c r="BR30" s="110"/>
+      <c r="BS30" s="110"/>
+      <c r="BT30" s="110"/>
+      <c r="BU30" s="110"/>
+      <c r="BV30" s="110"/>
+      <c r="BW30" s="110"/>
+      <c r="BX30" s="110"/>
+      <c r="BY30" s="110"/>
+      <c r="BZ30" s="110"/>
+      <c r="CA30" s="110"/>
+      <c r="CB30" s="110"/>
+      <c r="CC30" s="110"/>
+      <c r="CD30" s="110"/>
+      <c r="CE30" s="110"/>
     </row>
     <row r="31" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>83</v>
+      <c r="A31" s="7"/>
+      <c r="B31" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="37">
-        <v>42552</v>
+        <v>42519</v>
       </c>
       <c r="D31" s="13">
         <v>4</v>
       </c>
       <c r="E31" s="34">
-        <f t="shared" si="1"/>
-        <v>42556</v>
+        <f t="shared" si="0"/>
+        <v>42523</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
@@ -6643,62 +6785,71 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="CI31" s="62"/>
-      <c r="CJ31" s="62"/>
-      <c r="CK31" s="62"/>
-      <c r="CL31" s="62"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="11"/>
+      <c r="BI31" s="11"/>
+      <c r="BJ31" s="11"/>
+      <c r="BK31" s="11"/>
+      <c r="BL31" s="61"/>
+      <c r="BM31" s="61"/>
+      <c r="BN31" s="61"/>
+      <c r="BO31" s="61"/>
+      <c r="BP31" s="61"/>
+      <c r="BQ31" s="61"/>
+      <c r="BR31" s="61"/>
+      <c r="BS31" s="61"/>
+      <c r="BT31" s="61"/>
+      <c r="BU31" s="61"/>
+      <c r="BV31" s="110"/>
+      <c r="BW31" s="110"/>
+      <c r="BX31" s="110"/>
+      <c r="BY31" s="110"/>
+      <c r="BZ31" s="110"/>
+      <c r="CA31" s="110"/>
+      <c r="CB31" s="110"/>
+      <c r="CC31" s="110"/>
+      <c r="CD31" s="110"/>
+      <c r="CE31" s="110"/>
     </row>
     <row r="32" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>84</v>
+      <c r="A32" s="7"/>
+      <c r="B32" s="114" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="37">
-        <v>42556</v>
+        <v>42523</v>
       </c>
       <c r="D32" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E32" s="34">
-        <f t="shared" si="1"/>
-        <v>42559</v>
+        <f t="shared" si="0"/>
+        <v>42531</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
@@ -6728,59 +6879,71 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="CM32" s="69"/>
-      <c r="CN32" s="69"/>
-      <c r="CO32" s="69"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="118"/>
+      <c r="BG32" s="118"/>
+      <c r="BH32" s="118"/>
+      <c r="BI32" s="118"/>
+      <c r="BJ32" s="118"/>
+      <c r="BK32" s="118"/>
+      <c r="BL32" s="118"/>
+      <c r="BM32" s="118"/>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="110"/>
+      <c r="BR32" s="110"/>
+      <c r="BS32" s="110"/>
+      <c r="BT32" s="110"/>
+      <c r="BU32" s="110"/>
+      <c r="BV32" s="61"/>
+      <c r="BW32" s="61"/>
+      <c r="BX32" s="61"/>
+      <c r="BY32" s="61"/>
+      <c r="BZ32" s="61"/>
+      <c r="CA32" s="61"/>
+      <c r="CB32" s="61"/>
+      <c r="CC32" s="61"/>
+      <c r="CD32" s="61"/>
+      <c r="CE32" s="61"/>
     </row>
     <row r="33" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="66" t="s">
-        <v>111</v>
+      <c r="B33" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="C33" s="37">
-        <v>42559</v>
+        <v>42531</v>
       </c>
       <c r="D33" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E33" s="34">
-        <f t="shared" si="1"/>
-        <v>42563</v>
+        <f t="shared" si="0"/>
+        <v>42542</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="20"/>
@@ -6810,60 +6973,71 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="CP33" s="74"/>
-      <c r="CQ33" s="74"/>
-      <c r="CR33" s="74"/>
-      <c r="CS33" s="74"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="60"/>
+      <c r="BO33" s="60"/>
+      <c r="BP33" s="60"/>
+      <c r="BQ33" s="60"/>
+      <c r="BR33" s="60"/>
+      <c r="BS33" s="60"/>
+      <c r="BT33" s="60"/>
+      <c r="BU33" s="60"/>
+      <c r="BV33" s="60"/>
+      <c r="BW33" s="60"/>
+      <c r="BX33" s="60"/>
+      <c r="BY33" s="61"/>
+      <c r="BZ33" s="61"/>
+      <c r="CA33" s="61"/>
+      <c r="CB33" s="61"/>
+      <c r="CC33" s="61"/>
+      <c r="CD33" s="61"/>
+      <c r="CE33" s="61"/>
     </row>
     <row r="34" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="75" t="s">
-        <v>112</v>
+      <c r="B34" s="112" t="s">
+        <v>130</v>
       </c>
       <c r="C34" s="37">
-        <v>42563</v>
+        <v>42542</v>
       </c>
       <c r="D34" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E34" s="34">
-        <f t="shared" si="1"/>
-        <v>42566</v>
+        <f t="shared" si="0"/>
+        <v>42549</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="20"/>
@@ -6893,274 +7067,267 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="CT34" s="77"/>
-      <c r="CU34" s="77"/>
-      <c r="CV34" s="77"/>
-      <c r="CW34" s="77"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="110"/>
+      <c r="BR34" s="110"/>
+      <c r="BS34" s="110"/>
+      <c r="BT34" s="110"/>
+      <c r="BU34" s="110"/>
+      <c r="BV34" s="61"/>
+      <c r="BW34" s="61"/>
+      <c r="BX34" s="61"/>
+      <c r="BY34" s="115"/>
+      <c r="BZ34" s="115"/>
+      <c r="CA34" s="115"/>
+      <c r="CB34" s="115"/>
+      <c r="CC34" s="115"/>
+      <c r="CD34" s="115"/>
+      <c r="CE34" s="115"/>
     </row>
     <row r="35" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
-        <v>5</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="A35" s="42">
+        <v>4</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="102"/>
-      <c r="Z35" s="102"/>
-      <c r="AA35" s="102"/>
-      <c r="AB35" s="102"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="102"/>
-      <c r="AE35" s="102"/>
-      <c r="AF35" s="102"/>
-      <c r="AG35" s="102"/>
-      <c r="AH35" s="102"/>
-      <c r="AI35" s="102"/>
-      <c r="AJ35" s="102"/>
-      <c r="AK35" s="102"/>
-      <c r="AL35" s="102"/>
-      <c r="AM35" s="102"/>
-      <c r="AN35" s="102"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="102"/>
-      <c r="AU35" s="102"/>
-      <c r="AV35" s="102"/>
-      <c r="AW35" s="102"/>
-      <c r="AX35" s="102"/>
-      <c r="AY35" s="102"/>
-      <c r="AZ35" s="102"/>
-      <c r="BA35" s="102"/>
-      <c r="BB35" s="102"/>
-      <c r="BC35" s="102"/>
-      <c r="BD35" s="102"/>
-      <c r="BE35" s="102"/>
-      <c r="BF35" s="102"/>
-      <c r="BG35" s="102"/>
-      <c r="BH35" s="102"/>
-      <c r="BI35" s="102"/>
-      <c r="BJ35" s="102"/>
-      <c r="BK35" s="102"/>
-      <c r="BL35" s="102"/>
-      <c r="BM35" s="102"/>
-      <c r="BN35" s="102"/>
-      <c r="BO35" s="102"/>
-      <c r="BP35" s="102"/>
-      <c r="BQ35" s="102"/>
-      <c r="BR35" s="102"/>
-      <c r="BS35" s="102"/>
-      <c r="BT35" s="102"/>
-      <c r="BU35" s="102"/>
-      <c r="BV35" s="102"/>
-      <c r="BW35" s="102"/>
-      <c r="BX35" s="102"/>
-      <c r="BY35" s="102"/>
-      <c r="BZ35" s="102"/>
-      <c r="CA35" s="102"/>
-      <c r="CB35" s="102"/>
-      <c r="CC35" s="102"/>
-      <c r="CD35" s="102"/>
-      <c r="CE35" s="102"/>
-      <c r="CF35" s="102"/>
-      <c r="CG35" s="102"/>
-      <c r="CH35" s="102"/>
-      <c r="CI35" s="102"/>
-      <c r="CJ35" s="102"/>
-      <c r="CK35" s="102"/>
-      <c r="CL35" s="102"/>
-      <c r="CM35" s="102"/>
-      <c r="CN35" s="102"/>
-      <c r="CO35" s="102"/>
-      <c r="CP35" s="102"/>
-      <c r="CQ35" s="102"/>
-      <c r="CR35" s="102"/>
-      <c r="CS35" s="102"/>
-      <c r="CT35" s="102"/>
-      <c r="CU35" s="102"/>
-      <c r="CV35" s="102"/>
-      <c r="CW35" s="102"/>
-    </row>
-    <row r="36" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="36">
-        <v>42472</v>
-      </c>
-      <c r="D36" s="12">
-        <v>10</v>
+      <c r="G35" s="20"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="CF35" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG35" s="89"/>
+      <c r="CH35" s="89"/>
+      <c r="CI35" s="89"/>
+      <c r="CJ35" s="89"/>
+      <c r="CK35" s="89"/>
+      <c r="CL35" s="89"/>
+      <c r="CM35" s="89"/>
+      <c r="CN35" s="89"/>
+      <c r="CO35" s="89"/>
+      <c r="CP35" s="89"/>
+      <c r="CQ35" s="89"/>
+      <c r="CR35" s="89"/>
+      <c r="CS35" s="89"/>
+      <c r="CT35" s="89"/>
+      <c r="CU35" s="89"/>
+      <c r="CV35" s="89"/>
+      <c r="CW35" s="89"/>
+    </row>
+    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="37">
+        <v>42549</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2</v>
       </c>
       <c r="E36" s="34">
-        <v>42566</v>
+        <f t="shared" ref="E36:E42" si="1">$C36+$D36</f>
+        <v>42551</v>
       </c>
       <c r="F36" s="19"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="96"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="96"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="96"/>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
-      <c r="BA36" s="99"/>
-      <c r="BB36" s="96"/>
-      <c r="BC36" s="96"/>
-      <c r="BD36" s="96"/>
-      <c r="BE36" s="96"/>
-      <c r="BF36" s="96"/>
-      <c r="BG36" s="96"/>
-      <c r="BH36" s="99"/>
-      <c r="BI36" s="96"/>
-      <c r="BJ36" s="96"/>
-      <c r="BK36" s="96"/>
-      <c r="BL36" s="96"/>
-      <c r="BM36" s="96"/>
-      <c r="BN36" s="99"/>
-      <c r="BO36" s="96"/>
-      <c r="BP36" s="96"/>
-      <c r="BQ36" s="97"/>
-      <c r="BR36" s="97"/>
-      <c r="BS36" s="97"/>
-      <c r="BT36" s="97"/>
-      <c r="BU36" s="97"/>
-      <c r="BV36" s="100"/>
-      <c r="BW36" s="97"/>
-      <c r="BX36" s="97"/>
-      <c r="BY36" s="97"/>
-      <c r="BZ36" s="97"/>
-      <c r="CA36" s="97"/>
-      <c r="CB36" s="97"/>
-      <c r="CC36" s="100"/>
-      <c r="CD36" s="97"/>
-      <c r="CE36" s="97"/>
-      <c r="CF36" s="97"/>
-      <c r="CG36" s="97"/>
-      <c r="CH36" s="97"/>
-      <c r="CI36" s="97"/>
-      <c r="CJ36" s="101"/>
-      <c r="CK36" s="97"/>
-      <c r="CL36" s="97"/>
-      <c r="CM36" s="97"/>
-      <c r="CN36" s="97"/>
-      <c r="CO36" s="97"/>
-      <c r="CP36" s="97"/>
-      <c r="CQ36" s="100"/>
-      <c r="CR36" s="97"/>
-      <c r="CS36" s="97"/>
-      <c r="CT36" s="97"/>
-      <c r="CU36" s="97"/>
-      <c r="CV36" s="97"/>
-      <c r="CW36" s="98"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="CF36" s="46"/>
+      <c r="CG36" s="46"/>
+      <c r="CH36" s="61"/>
+      <c r="CI36" s="110"/>
+      <c r="CJ36" s="110"/>
+      <c r="CK36" s="110"/>
+      <c r="CL36" s="110"/>
+      <c r="CM36" s="110"/>
+      <c r="CN36" s="110"/>
+      <c r="CO36" s="110"/>
+      <c r="CP36" s="110"/>
+      <c r="CQ36" s="110"/>
+      <c r="CR36" s="110"/>
+      <c r="CS36" s="110"/>
+      <c r="CT36" s="110"/>
+      <c r="CU36" s="110"/>
+      <c r="CV36" s="110"/>
+      <c r="CW36" s="110"/>
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="37">
+        <v>42551</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
+      <c r="E37" s="34">
+        <f>$C37+$D37</f>
+        <v>42553</v>
+      </c>
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
       <c r="H37" s="1"/>
@@ -7224,13 +7391,42 @@
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
+      <c r="CF37" s="110"/>
+      <c r="CG37" s="110"/>
+      <c r="CH37" s="45"/>
+      <c r="CI37" s="45"/>
+      <c r="CJ37" s="61"/>
+      <c r="CK37" s="61"/>
+      <c r="CL37" s="61"/>
+      <c r="CM37" s="110"/>
+      <c r="CN37" s="110"/>
+      <c r="CO37" s="110"/>
+      <c r="CP37" s="110"/>
+      <c r="CQ37" s="110"/>
+      <c r="CR37" s="110"/>
+      <c r="CS37" s="110"/>
+      <c r="CT37" s="110"/>
+      <c r="CU37" s="110"/>
+      <c r="CV37" s="110"/>
+      <c r="CW37" s="110"/>
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="34"/>
+      <c r="A38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="37">
+        <v>42553</v>
+      </c>
+      <c r="D38" s="13">
+        <v>4</v>
+      </c>
+      <c r="E38" s="34">
+        <f>$C38+$D38</f>
+        <v>42557</v>
+      </c>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="1"/>
@@ -7294,13 +7490,40 @@
       <c r="BN38" s="1"/>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
+      <c r="CF38" s="110"/>
+      <c r="CG38" s="110"/>
+      <c r="CH38" s="110"/>
+      <c r="CI38" s="110"/>
+      <c r="CJ38" s="52"/>
+      <c r="CK38" s="52"/>
+      <c r="CL38" s="52"/>
+      <c r="CM38" s="52"/>
+      <c r="CN38" s="61"/>
+      <c r="CO38" s="61"/>
+      <c r="CP38" s="110"/>
+      <c r="CQ38" s="110"/>
+      <c r="CR38" s="110"/>
+      <c r="CS38" s="110"/>
+      <c r="CT38" s="110"/>
+      <c r="CU38" s="110"/>
+      <c r="CV38" s="110"/>
+      <c r="CW38" s="110"/>
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="34"/>
+      <c r="B39" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="37">
+        <v>42557</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2</v>
+      </c>
+      <c r="E39" s="34">
+        <f t="shared" si="1"/>
+        <v>42559</v>
+      </c>
       <c r="F39" s="19"/>
       <c r="G39" s="20"/>
       <c r="H39" s="1"/>
@@ -7364,13 +7587,40 @@
       <c r="BN39" s="1"/>
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
+      <c r="CF39" s="110"/>
+      <c r="CG39" s="110"/>
+      <c r="CH39" s="110"/>
+      <c r="CI39" s="110"/>
+      <c r="CJ39" s="110"/>
+      <c r="CK39" s="110"/>
+      <c r="CL39" s="110"/>
+      <c r="CM39" s="110"/>
+      <c r="CN39" s="57"/>
+      <c r="CO39" s="57"/>
+      <c r="CP39" s="61"/>
+      <c r="CQ39" s="61"/>
+      <c r="CR39" s="61"/>
+      <c r="CS39" s="61"/>
+      <c r="CT39" s="110"/>
+      <c r="CU39" s="110"/>
+      <c r="CV39" s="110"/>
+      <c r="CW39" s="110"/>
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="34"/>
+      <c r="B40" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="37">
+        <v>42559</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="34">
+        <f>$C40+$D40</f>
+        <v>42561</v>
+      </c>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="1"/>
@@ -7434,13 +7684,40 @@
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
+      <c r="CF40" s="110"/>
+      <c r="CG40" s="110"/>
+      <c r="CH40" s="110"/>
+      <c r="CI40" s="110"/>
+      <c r="CJ40" s="110"/>
+      <c r="CK40" s="110"/>
+      <c r="CL40" s="110"/>
+      <c r="CM40" s="110"/>
+      <c r="CN40" s="110"/>
+      <c r="CO40" s="110"/>
+      <c r="CP40" s="118"/>
+      <c r="CQ40" s="118"/>
+      <c r="CR40" s="110"/>
+      <c r="CS40" s="110"/>
+      <c r="CT40" s="61"/>
+      <c r="CU40" s="61"/>
+      <c r="CV40" s="61"/>
+      <c r="CW40" s="61"/>
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="37">
+        <v>42561</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3</v>
+      </c>
+      <c r="E41" s="34">
+        <f t="shared" si="1"/>
+        <v>42564</v>
+      </c>
       <c r="F41" s="19"/>
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
@@ -7504,13 +7781,40 @@
       <c r="BN41" s="1"/>
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
+      <c r="CF41" s="110"/>
+      <c r="CG41" s="110"/>
+      <c r="CH41" s="110"/>
+      <c r="CI41" s="110"/>
+      <c r="CJ41" s="110"/>
+      <c r="CK41" s="110"/>
+      <c r="CL41" s="110"/>
+      <c r="CM41" s="110"/>
+      <c r="CN41" s="110"/>
+      <c r="CO41" s="110"/>
+      <c r="CP41" s="110"/>
+      <c r="CQ41" s="110"/>
+      <c r="CR41" s="60"/>
+      <c r="CS41" s="60"/>
+      <c r="CT41" s="60"/>
+      <c r="CU41" s="61"/>
+      <c r="CV41" s="61"/>
+      <c r="CW41" s="61"/>
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="34"/>
+      <c r="B42" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="37">
+        <v>42564</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" si="1"/>
+        <v>42566</v>
+      </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
@@ -7574,152 +7878,252 @@
       <c r="BN42" s="1"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
+      <c r="CF42" s="110"/>
+      <c r="CG42" s="110"/>
+      <c r="CH42" s="110"/>
+      <c r="CI42" s="110"/>
+      <c r="CJ42" s="110"/>
+      <c r="CK42" s="110"/>
+      <c r="CL42" s="110"/>
+      <c r="CM42" s="110"/>
+      <c r="CN42" s="110"/>
+      <c r="CO42" s="110"/>
+      <c r="CP42" s="110"/>
+      <c r="CQ42" s="110"/>
+      <c r="CR42" s="110"/>
+      <c r="CS42" s="110"/>
+      <c r="CT42" s="61"/>
+      <c r="CU42" s="113"/>
+      <c r="CV42" s="115"/>
+      <c r="CW42" s="115"/>
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="42">
+        <v>5</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-    </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="34"/>
+      <c r="G43" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="90"/>
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="90"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="90"/>
+      <c r="AL43" s="90"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="90"/>
+      <c r="AO43" s="90"/>
+      <c r="AP43" s="90"/>
+      <c r="AQ43" s="90"/>
+      <c r="AR43" s="90"/>
+      <c r="AS43" s="90"/>
+      <c r="AT43" s="90"/>
+      <c r="AU43" s="90"/>
+      <c r="AV43" s="90"/>
+      <c r="AW43" s="90"/>
+      <c r="AX43" s="90"/>
+      <c r="AY43" s="90"/>
+      <c r="AZ43" s="90"/>
+      <c r="BA43" s="90"/>
+      <c r="BB43" s="90"/>
+      <c r="BC43" s="90"/>
+      <c r="BD43" s="90"/>
+      <c r="BE43" s="90"/>
+      <c r="BF43" s="90"/>
+      <c r="BG43" s="90"/>
+      <c r="BH43" s="90"/>
+      <c r="BI43" s="90"/>
+      <c r="BJ43" s="90"/>
+      <c r="BK43" s="90"/>
+      <c r="BL43" s="90"/>
+      <c r="BM43" s="90"/>
+      <c r="BN43" s="90"/>
+      <c r="BO43" s="90"/>
+      <c r="BP43" s="90"/>
+      <c r="BQ43" s="90"/>
+      <c r="BR43" s="90"/>
+      <c r="BS43" s="90"/>
+      <c r="BT43" s="90"/>
+      <c r="BU43" s="90"/>
+      <c r="BV43" s="90"/>
+      <c r="BW43" s="90"/>
+      <c r="BX43" s="90"/>
+      <c r="BY43" s="90"/>
+      <c r="BZ43" s="90"/>
+      <c r="CA43" s="90"/>
+      <c r="CB43" s="90"/>
+      <c r="CC43" s="90"/>
+      <c r="CD43" s="90"/>
+      <c r="CE43" s="90"/>
+      <c r="CF43" s="90"/>
+      <c r="CG43" s="90"/>
+      <c r="CH43" s="90"/>
+      <c r="CI43" s="90"/>
+      <c r="CJ43" s="90"/>
+      <c r="CK43" s="90"/>
+      <c r="CL43" s="90"/>
+      <c r="CM43" s="90"/>
+      <c r="CN43" s="90"/>
+      <c r="CO43" s="90"/>
+      <c r="CP43" s="90"/>
+      <c r="CQ43" s="90"/>
+      <c r="CR43" s="90"/>
+      <c r="CS43" s="90"/>
+      <c r="CT43" s="90"/>
+      <c r="CU43" s="90"/>
+      <c r="CV43" s="90"/>
+      <c r="CW43" s="90"/>
+    </row>
+    <row r="44" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="36">
+        <v>42472</v>
+      </c>
+      <c r="D44" s="12">
+        <v>10</v>
+      </c>
+      <c r="E44" s="34">
+        <v>42566</v>
+      </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="71"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="71"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="71"/>
+      <c r="AQ44" s="71"/>
+      <c r="AR44" s="71"/>
+      <c r="AS44" s="71"/>
+      <c r="AT44" s="74"/>
+      <c r="AU44" s="71"/>
+      <c r="AV44" s="71"/>
+      <c r="AW44" s="71"/>
+      <c r="AX44" s="71"/>
+      <c r="AY44" s="71"/>
+      <c r="AZ44" s="71"/>
+      <c r="BA44" s="74"/>
+      <c r="BB44" s="71"/>
+      <c r="BC44" s="71"/>
+      <c r="BD44" s="71"/>
+      <c r="BE44" s="71"/>
+      <c r="BF44" s="71"/>
+      <c r="BG44" s="71"/>
+      <c r="BH44" s="74"/>
+      <c r="BI44" s="71"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="71"/>
+      <c r="BL44" s="71"/>
+      <c r="BM44" s="71"/>
+      <c r="BN44" s="74"/>
+      <c r="BO44" s="71"/>
+      <c r="BP44" s="71"/>
+      <c r="BQ44" s="72"/>
+      <c r="BR44" s="72"/>
+      <c r="BS44" s="72"/>
+      <c r="BT44" s="72"/>
+      <c r="BU44" s="72"/>
+      <c r="BV44" s="75"/>
+      <c r="BW44" s="72"/>
+      <c r="BX44" s="72"/>
+      <c r="BY44" s="72"/>
+      <c r="BZ44" s="72"/>
+      <c r="CA44" s="72"/>
+      <c r="CB44" s="72"/>
+      <c r="CC44" s="75"/>
+      <c r="CD44" s="72"/>
+      <c r="CE44" s="72"/>
+      <c r="CF44" s="72"/>
+      <c r="CG44" s="72"/>
+      <c r="CH44" s="72"/>
+      <c r="CI44" s="72"/>
+      <c r="CJ44" s="76"/>
+      <c r="CK44" s="72"/>
+      <c r="CL44" s="72"/>
+      <c r="CM44" s="72"/>
+      <c r="CN44" s="72"/>
+      <c r="CO44" s="72"/>
+      <c r="CP44" s="72"/>
+      <c r="CQ44" s="75"/>
+      <c r="CR44" s="72"/>
+      <c r="CS44" s="72"/>
+      <c r="CT44" s="72"/>
+      <c r="CU44" s="72"/>
+      <c r="CV44" s="72"/>
+      <c r="CW44" s="73"/>
     </row>
     <row r="45" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="34"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
@@ -7786,10 +8190,10 @@
       <c r="BP45" s="1"/>
     </row>
     <row r="46" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="34"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20"/>
@@ -8067,12 +8471,12 @@
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="2"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="34"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -8137,12 +8541,12 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="34"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -8207,12 +8611,12 @@
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="34"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="14"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -8277,12 +8681,12 @@
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="34"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="14"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -8347,12 +8751,12 @@
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="34"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -8417,12 +8821,12 @@
     </row>
     <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="34"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -8487,12 +8891,12 @@
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="34"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="14"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -8557,12 +8961,12 @@
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="34"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="14"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -9885,25 +10289,591 @@
       <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
     </row>
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+    </row>
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+    </row>
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+    </row>
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+    </row>
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+    </row>
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+    </row>
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+    </row>
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="CF29:CW29"/>
-    <mergeCell ref="G35:CW35"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="P17:AG17"/>
-    <mergeCell ref="AH23:CE23"/>
+  <mergeCells count="23">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="CF35:CW35"/>
+    <mergeCell ref="G43:CW43"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="P19:AG19"/>
+    <mergeCell ref="AH27:CE27"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="P26:AG26"/>
+    <mergeCell ref="P24:AG24"/>
+    <mergeCell ref="BY34:CE34"/>
+    <mergeCell ref="CV42:CW42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9912,196 +10882,609 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="109" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="109">
+        <v>5</v>
+      </c>
+      <c r="G3" s="109">
+        <v>12</v>
+      </c>
+      <c r="H3" s="109">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="109">
+        <v>8</v>
+      </c>
+      <c r="J3" s="109">
+        <v>11</v>
+      </c>
+      <c r="K3" s="109">
+        <v>7</v>
+      </c>
+      <c r="L3" s="109">
+        <f>SUM(E3:K3)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C4" s="100">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="98">
         <v>9</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E4" s="101">
         <v>9</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C5" s="100">
         <v>0.2</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="98">
         <v>18</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E5" s="101">
         <v>18</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C6" s="100">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="98">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="98">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="98">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="98">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="98">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="98">
         <v>10</v>
       </c>
-      <c r="K5">
-        <f>SUM($E5:$I5)</f>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98">
+        <f>SUM($E6:$I6)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C7" s="100">
         <v>0.2</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="98">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="98">
+        <v>2</v>
+      </c>
+      <c r="F7" s="98">
+        <v>2</v>
+      </c>
+      <c r="G7" s="98">
+        <v>4</v>
+      </c>
+      <c r="H7" s="98">
+        <v>2</v>
+      </c>
+      <c r="I7" s="98">
+        <v>2</v>
+      </c>
+      <c r="J7" s="98">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K7" si="0">SUM($E6:$I6)</f>
+      <c r="K7" s="98">
+        <v>2</v>
+      </c>
+      <c r="L7" s="98">
+        <f>SUM($E7:$K7)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C8" s="102">
         <v>0.1</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="98">
         <v>10</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98">
+        <f t="shared" ref="L7:L8" si="0">SUM($E8:$I8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="94">
-        <f>SUM(C3:C6)</f>
+      <c r="C9" s="100">
+        <f>SUM(C4:C7)</f>
         <v>1</v>
       </c>
-      <c r="D8">
-        <f>SUM(D3:D6)</f>
+      <c r="D9" s="98">
+        <f>SUM(D4:D7)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C13" s="68">
         <v>42472</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C14" s="68">
         <v>42566</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>125</v>
       </c>
-      <c r="C14">
-        <f>C13-C12</f>
+      <c r="C15">
+        <f>C14-C13</f>
         <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C17:C19)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="98">
+        <v>1</v>
+      </c>
+      <c r="D2" s="98">
+        <f>C2*2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="106">
+        <f>SUM(D2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="98">
+        <v>1</v>
+      </c>
+      <c r="D3" s="98">
+        <f t="shared" ref="D3:D4" si="0">C3*2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="107">
+        <f>SUM(D3:D4)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="98">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" s="98">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="107"/>
+      <c r="G4" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="98">
+        <v>5</v>
+      </c>
+      <c r="D5" s="98">
+        <f>C5</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="108">
+        <f>SUM(D5:D6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="98">
+        <v>1</v>
+      </c>
+      <c r="D6" s="98">
+        <f>C6*7</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="108"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="98">
+        <v>1</v>
+      </c>
+      <c r="D7" s="98">
+        <f>C7*1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="108">
+        <f>SUM(D7:D8)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="98">
+        <v>1</v>
+      </c>
+      <c r="D8" s="98">
+        <f>C8*2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="108"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="98">
+        <v>1</v>
+      </c>
+      <c r="D9" s="98">
+        <f>C9*1</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="108">
+        <f>SUM(D9:D10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="98">
+        <v>1</v>
+      </c>
+      <c r="D10" s="98">
+        <f>C10*7</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="108"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="98">
+        <v>6</v>
+      </c>
+      <c r="D11" s="98">
+        <f>C11*1</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="108">
+        <f>SUM(D11:D12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="98">
+        <v>2</v>
+      </c>
+      <c r="D12" s="98">
+        <f>C12*2.5</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="98">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98">
+        <f>C13*7</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="106">
+        <f>SUM(D13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="98">
+        <f>SUM(D2:D13)</f>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8 D10" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/Diagramme-de-Gantt-sur-Excel-v2.xlsx
+++ b/Diagramme-de-Gantt-sur-Excel-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
@@ -10884,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11207,7 +11207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
